--- a/PM_Tracing/FamilyFinanceProjectDocument.xlsx
+++ b/PM_Tracing/FamilyFinanceProjectDocument.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I300934\PycharmProjects\WossHouseFinanceManagement\PM_Tracing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12570" activeTab="1"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>对象模型：</t>
   </si>
@@ -147,9 +152,6 @@
   <si>
     <t>增加科目类型预定义，科目类型有且只有以下几种：资产，成本，费用，负债，收入；其中资产，成本，费用类型其增加为借，减少为贷；负债和收入类型其增加为贷，减少为借</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发中</t>
   </si>
   <si>
     <t>研究前台的图表如何画。</t>
@@ -174,18 +176,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -193,7 +195,7 @@
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -239,7 +241,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -247,7 +249,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -256,7 +258,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -459,7 +461,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -467,12 +469,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -514,7 +519,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -549,7 +554,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -764,18 +769,18 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -785,7 +790,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -795,7 +800,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="25.5">
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
         <v>5</v>
@@ -805,7 +810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="B5" s="5"/>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -815,7 +820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="B6" s="5"/>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -825,13 +830,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
@@ -841,7 +846,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="B9" s="5"/>
       <c r="C9" s="4" t="s">
         <v>13</v>
@@ -851,7 +856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="B10" s="5"/>
       <c r="C10" s="4" t="s">
         <v>15</v>
@@ -861,7 +866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="B11" s="5"/>
       <c r="C11" s="4" t="s">
         <v>17</v>
@@ -871,13 +876,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="25.5">
       <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
@@ -887,7 +892,7 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="B14" s="5"/>
       <c r="C14" s="4" t="s">
         <v>21</v>
@@ -897,7 +902,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="B15" s="5"/>
       <c r="C15" s="4" t="s">
         <v>23</v>
@@ -907,7 +912,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="B16" s="5"/>
       <c r="C16" s="4" t="s">
         <v>25</v>
@@ -917,13 +922,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:5">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="2:5" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:5" ht="25.5">
       <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
@@ -933,7 +938,7 @@
       </c>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="2:5" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:5" ht="25.5">
       <c r="B19" s="5"/>
       <c r="C19" s="4" t="s">
         <v>29</v>
@@ -943,7 +948,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:5">
       <c r="B20" s="5"/>
       <c r="C20" s="4" t="s">
         <v>31</v>
@@ -953,7 +958,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:5">
       <c r="B21" s="5"/>
       <c r="C21" s="4" t="s">
         <v>32</v>
@@ -963,7 +968,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:5">
       <c r="B22" s="5"/>
       <c r="C22" s="4" t="s">
         <v>34</v>
@@ -973,7 +978,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:5" ht="25.5">
       <c r="B23" s="5"/>
       <c r="C23" s="4" t="s">
         <v>36</v>
@@ -998,18 +1003,18 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="50.625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="50.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="50.5703125" style="11" customWidth="1"/>
     <col min="4" max="4" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="17" t="s">
         <v>37</v>
       </c>
@@ -1019,7 +1024,7 @@
       </c>
       <c r="D1" s="20"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="21" t="s">
         <v>39</v>
       </c>
@@ -1033,755 +1038,755 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="16" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" s="16" customFormat="1" ht="51">
       <c r="A3" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="16" customFormat="1" ht="25.5">
+      <c r="A4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="B4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="16" customFormat="1" ht="24" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A5" s="12"/>
       <c r="B5" s="13"/>
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
     </row>
-    <row r="6" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
     </row>
-    <row r="7" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
       <c r="D7" s="15"/>
     </row>
-    <row r="8" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
     </row>
-    <row r="9" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
     </row>
-    <row r="10" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
     </row>
-    <row r="11" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
     </row>
-    <row r="12" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
     </row>
-    <row r="13" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
     </row>
-    <row r="14" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
       <c r="D14" s="15"/>
     </row>
-    <row r="15" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
       <c r="D15" s="15"/>
     </row>
-    <row r="16" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
     </row>
-    <row r="17" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="15"/>
     </row>
-    <row r="18" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="15"/>
     </row>
-    <row r="19" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
       <c r="D19" s="15"/>
     </row>
-    <row r="20" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
       <c r="D20" s="15"/>
     </row>
-    <row r="21" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
       <c r="D21" s="15"/>
     </row>
-    <row r="22" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="14"/>
       <c r="D22" s="15"/>
     </row>
-    <row r="23" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
       <c r="D23" s="15"/>
     </row>
-    <row r="24" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="14"/>
       <c r="D24" s="15"/>
     </row>
-    <row r="25" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="14"/>
       <c r="D25" s="15"/>
     </row>
-    <row r="26" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
       <c r="D26" s="15"/>
     </row>
-    <row r="27" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
       <c r="D27" s="15"/>
     </row>
-    <row r="28" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15"/>
     </row>
-    <row r="29" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
       <c r="D29" s="15"/>
     </row>
-    <row r="30" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
       <c r="D30" s="15"/>
     </row>
-    <row r="31" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
       <c r="D31" s="15"/>
     </row>
-    <row r="32" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
       <c r="D32" s="15"/>
     </row>
-    <row r="33" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
       <c r="D33" s="15"/>
     </row>
-    <row r="34" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="14"/>
       <c r="D34" s="15"/>
     </row>
-    <row r="35" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
       <c r="D35" s="15"/>
     </row>
-    <row r="36" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
       <c r="D36" s="15"/>
     </row>
-    <row r="37" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="14"/>
       <c r="D37" s="15"/>
     </row>
-    <row r="38" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="14"/>
       <c r="D38" s="15"/>
     </row>
-    <row r="39" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="14"/>
       <c r="D39" s="15"/>
     </row>
-    <row r="40" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
       <c r="D40" s="15"/>
     </row>
-    <row r="41" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A41" s="12"/>
       <c r="B41" s="13"/>
       <c r="C41" s="14"/>
       <c r="D41" s="15"/>
     </row>
-    <row r="42" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A42" s="12"/>
       <c r="B42" s="13"/>
       <c r="C42" s="14"/>
       <c r="D42" s="15"/>
     </row>
-    <row r="43" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A43" s="12"/>
       <c r="B43" s="13"/>
       <c r="C43" s="14"/>
       <c r="D43" s="15"/>
     </row>
-    <row r="44" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A44" s="12"/>
       <c r="B44" s="13"/>
       <c r="C44" s="14"/>
       <c r="D44" s="15"/>
     </row>
-    <row r="45" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A45" s="12"/>
       <c r="B45" s="13"/>
       <c r="C45" s="14"/>
       <c r="D45" s="15"/>
     </row>
-    <row r="46" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A46" s="12"/>
       <c r="B46" s="13"/>
       <c r="C46" s="14"/>
       <c r="D46" s="15"/>
     </row>
-    <row r="47" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A47" s="12"/>
       <c r="B47" s="13"/>
       <c r="C47" s="14"/>
       <c r="D47" s="15"/>
     </row>
-    <row r="48" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A48" s="12"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14"/>
       <c r="D48" s="15"/>
     </row>
-    <row r="49" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A49" s="12"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
       <c r="D49" s="15"/>
     </row>
-    <row r="50" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A50" s="12"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
       <c r="D50" s="15"/>
     </row>
-    <row r="51" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A51" s="12"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
       <c r="D51" s="15"/>
     </row>
-    <row r="52" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A52" s="12"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
       <c r="D52" s="15"/>
     </row>
-    <row r="53" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A53" s="12"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
       <c r="D53" s="15"/>
     </row>
-    <row r="54" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A54" s="12"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
       <c r="D54" s="15"/>
     </row>
-    <row r="55" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A55" s="12"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
       <c r="D55" s="15"/>
     </row>
-    <row r="56" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A56" s="12"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
       <c r="D56" s="15"/>
     </row>
-    <row r="57" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A57" s="12"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
       <c r="D57" s="15"/>
     </row>
-    <row r="58" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A58" s="12"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
       <c r="D58" s="15"/>
     </row>
-    <row r="59" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A59" s="12"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
       <c r="D59" s="15"/>
     </row>
-    <row r="60" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A60" s="12"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
       <c r="D60" s="15"/>
     </row>
-    <row r="61" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A61" s="12"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
       <c r="D61" s="15"/>
     </row>
-    <row r="62" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A62" s="12"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
       <c r="D62" s="15"/>
     </row>
-    <row r="63" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A63" s="12"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
       <c r="D63" s="15"/>
     </row>
-    <row r="64" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A64" s="12"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
       <c r="D64" s="15"/>
     </row>
-    <row r="65" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A65" s="12"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14"/>
       <c r="D65" s="15"/>
     </row>
-    <row r="66" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A66" s="12"/>
       <c r="B66" s="13"/>
       <c r="C66" s="14"/>
       <c r="D66" s="15"/>
     </row>
-    <row r="67" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A67" s="12"/>
       <c r="B67" s="13"/>
       <c r="C67" s="14"/>
       <c r="D67" s="15"/>
     </row>
-    <row r="68" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A68" s="12"/>
       <c r="B68" s="13"/>
       <c r="C68" s="14"/>
       <c r="D68" s="15"/>
     </row>
-    <row r="69" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A69" s="12"/>
       <c r="B69" s="13"/>
       <c r="C69" s="14"/>
       <c r="D69" s="15"/>
     </row>
-    <row r="70" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A70" s="12"/>
       <c r="B70" s="13"/>
       <c r="C70" s="14"/>
       <c r="D70" s="15"/>
     </row>
-    <row r="71" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A71" s="12"/>
       <c r="B71" s="13"/>
       <c r="C71" s="14"/>
       <c r="D71" s="15"/>
     </row>
-    <row r="72" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A72" s="12"/>
       <c r="B72" s="13"/>
       <c r="C72" s="14"/>
       <c r="D72" s="15"/>
     </row>
-    <row r="73" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A73" s="12"/>
       <c r="B73" s="13"/>
       <c r="C73" s="14"/>
       <c r="D73" s="15"/>
     </row>
-    <row r="74" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A74" s="12"/>
       <c r="B74" s="13"/>
       <c r="C74" s="14"/>
       <c r="D74" s="15"/>
     </row>
-    <row r="75" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A75" s="12"/>
       <c r="B75" s="13"/>
       <c r="C75" s="14"/>
       <c r="D75" s="15"/>
     </row>
-    <row r="76" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A76" s="12"/>
       <c r="B76" s="13"/>
       <c r="C76" s="14"/>
       <c r="D76" s="15"/>
     </row>
-    <row r="77" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A77" s="12"/>
       <c r="B77" s="13"/>
       <c r="C77" s="14"/>
       <c r="D77" s="15"/>
     </row>
-    <row r="78" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A78" s="12"/>
       <c r="B78" s="13"/>
       <c r="C78" s="14"/>
       <c r="D78" s="15"/>
     </row>
-    <row r="79" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A79" s="12"/>
       <c r="B79" s="13"/>
       <c r="C79" s="14"/>
       <c r="D79" s="15"/>
     </row>
-    <row r="80" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A80" s="12"/>
       <c r="B80" s="13"/>
       <c r="C80" s="14"/>
       <c r="D80" s="15"/>
     </row>
-    <row r="81" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A81" s="12"/>
       <c r="B81" s="13"/>
       <c r="C81" s="14"/>
       <c r="D81" s="15"/>
     </row>
-    <row r="82" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A82" s="12"/>
       <c r="B82" s="13"/>
       <c r="C82" s="14"/>
       <c r="D82" s="15"/>
     </row>
-    <row r="83" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A83" s="12"/>
       <c r="B83" s="13"/>
       <c r="C83" s="14"/>
       <c r="D83" s="15"/>
     </row>
-    <row r="84" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A84" s="12"/>
       <c r="B84" s="13"/>
       <c r="C84" s="14"/>
       <c r="D84" s="15"/>
     </row>
-    <row r="85" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A85" s="12"/>
       <c r="B85" s="13"/>
       <c r="C85" s="14"/>
       <c r="D85" s="15"/>
     </row>
-    <row r="86" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A86" s="12"/>
       <c r="B86" s="13"/>
       <c r="C86" s="14"/>
       <c r="D86" s="15"/>
     </row>
-    <row r="87" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A87" s="12"/>
       <c r="B87" s="13"/>
       <c r="C87" s="14"/>
       <c r="D87" s="15"/>
     </row>
-    <row r="88" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A88" s="12"/>
       <c r="B88" s="13"/>
       <c r="C88" s="14"/>
       <c r="D88" s="15"/>
     </row>
-    <row r="89" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A89" s="12"/>
       <c r="B89" s="13"/>
       <c r="C89" s="14"/>
       <c r="D89" s="15"/>
     </row>
-    <row r="90" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A90" s="12"/>
       <c r="B90" s="13"/>
       <c r="C90" s="14"/>
       <c r="D90" s="15"/>
     </row>
-    <row r="91" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A91" s="12"/>
       <c r="B91" s="13"/>
       <c r="C91" s="14"/>
       <c r="D91" s="15"/>
     </row>
-    <row r="92" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A92" s="12"/>
       <c r="B92" s="13"/>
       <c r="C92" s="14"/>
       <c r="D92" s="15"/>
     </row>
-    <row r="93" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A93" s="12"/>
       <c r="B93" s="13"/>
       <c r="C93" s="14"/>
       <c r="D93" s="15"/>
     </row>
-    <row r="94" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A94" s="12"/>
       <c r="B94" s="13"/>
       <c r="C94" s="14"/>
       <c r="D94" s="15"/>
     </row>
-    <row r="95" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A95" s="12"/>
       <c r="B95" s="13"/>
       <c r="C95" s="14"/>
       <c r="D95" s="15"/>
     </row>
-    <row r="96" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A96" s="12"/>
       <c r="B96" s="13"/>
       <c r="C96" s="14"/>
       <c r="D96" s="15"/>
     </row>
-    <row r="97" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A97" s="12"/>
       <c r="B97" s="13"/>
       <c r="C97" s="14"/>
       <c r="D97" s="15"/>
     </row>
-    <row r="98" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A98" s="12"/>
       <c r="B98" s="13"/>
       <c r="C98" s="14"/>
       <c r="D98" s="15"/>
     </row>
-    <row r="99" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A99" s="12"/>
       <c r="B99" s="13"/>
       <c r="C99" s="14"/>
       <c r="D99" s="15"/>
     </row>
-    <row r="100" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A100" s="12"/>
       <c r="B100" s="13"/>
       <c r="C100" s="14"/>
       <c r="D100" s="15"/>
     </row>
-    <row r="101" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A101" s="12"/>
       <c r="B101" s="13"/>
       <c r="C101" s="14"/>
       <c r="D101" s="15"/>
     </row>
-    <row r="102" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A102" s="12"/>
       <c r="B102" s="13"/>
       <c r="C102" s="14"/>
       <c r="D102" s="15"/>
     </row>
-    <row r="103" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A103" s="12"/>
       <c r="B103" s="13"/>
       <c r="C103" s="14"/>
       <c r="D103" s="15"/>
     </row>
-    <row r="104" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A104" s="12"/>
       <c r="B104" s="13"/>
       <c r="C104" s="14"/>
       <c r="D104" s="15"/>
     </row>
-    <row r="105" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A105" s="12"/>
       <c r="B105" s="13"/>
       <c r="C105" s="14"/>
       <c r="D105" s="15"/>
     </row>
-    <row r="106" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A106" s="12"/>
       <c r="B106" s="13"/>
       <c r="C106" s="14"/>
       <c r="D106" s="15"/>
     </row>
-    <row r="107" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A107" s="12"/>
       <c r="B107" s="13"/>
       <c r="C107" s="14"/>
       <c r="D107" s="15"/>
     </row>
-    <row r="108" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A108" s="12"/>
       <c r="B108" s="13"/>
       <c r="C108" s="14"/>
       <c r="D108" s="15"/>
     </row>
-    <row r="109" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A109" s="12"/>
       <c r="B109" s="13"/>
       <c r="C109" s="14"/>
       <c r="D109" s="15"/>
     </row>
-    <row r="110" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A110" s="12"/>
       <c r="B110" s="13"/>
       <c r="C110" s="14"/>
       <c r="D110" s="15"/>
     </row>
-    <row r="111" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A111" s="12"/>
       <c r="B111" s="13"/>
       <c r="C111" s="14"/>
       <c r="D111" s="15"/>
     </row>
-    <row r="112" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A112" s="12"/>
       <c r="B112" s="13"/>
       <c r="C112" s="14"/>
       <c r="D112" s="15"/>
     </row>
-    <row r="113" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A113" s="12"/>
       <c r="B113" s="13"/>
       <c r="C113" s="14"/>
       <c r="D113" s="15"/>
     </row>
-    <row r="114" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A114" s="12"/>
       <c r="B114" s="13"/>
       <c r="C114" s="14"/>
       <c r="D114" s="15"/>
     </row>
-    <row r="115" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A115" s="12"/>
       <c r="B115" s="13"/>
       <c r="C115" s="14"/>
       <c r="D115" s="15"/>
     </row>
-    <row r="116" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A116" s="12"/>
       <c r="B116" s="13"/>
       <c r="C116" s="14"/>
       <c r="D116" s="15"/>
     </row>
-    <row r="117" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A117" s="12"/>
       <c r="B117" s="13"/>
       <c r="C117" s="14"/>
       <c r="D117" s="15"/>
     </row>
-    <row r="118" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A118" s="12"/>
       <c r="B118" s="13"/>
       <c r="C118" s="14"/>
       <c r="D118" s="15"/>
     </row>
-    <row r="119" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A119" s="12"/>
       <c r="B119" s="13"/>
       <c r="C119" s="14"/>
       <c r="D119" s="15"/>
     </row>
-    <row r="120" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A120" s="12"/>
       <c r="B120" s="13"/>
       <c r="C120" s="14"/>
       <c r="D120" s="15"/>
     </row>
-    <row r="121" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A121" s="12"/>
       <c r="B121" s="13"/>
       <c r="C121" s="14"/>
       <c r="D121" s="15"/>
     </row>
-    <row r="122" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A122" s="12"/>
       <c r="B122" s="13"/>
       <c r="C122" s="14"/>
       <c r="D122" s="15"/>
     </row>
-    <row r="123" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A123" s="12"/>
       <c r="B123" s="13"/>
       <c r="C123" s="14"/>
       <c r="D123" s="15"/>
     </row>
-    <row r="124" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A124" s="12"/>
       <c r="B124" s="13"/>
       <c r="C124" s="14"/>
       <c r="D124" s="15"/>
     </row>
-    <row r="125" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A125" s="12"/>
       <c r="B125" s="13"/>
       <c r="C125" s="14"/>
@@ -1805,7 +1810,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PM_Tracing/FamilyFinanceProjectDocument.xlsx
+++ b/PM_Tracing/FamilyFinanceProjectDocument.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>对象模型：</t>
   </si>
@@ -170,6 +170,9 @@
   <si>
     <t>研究页面框架和布局</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建header page和footer page，将页面的结构进行拆分</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1006,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1069,8 +1072,12 @@
     <row r="5" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A5" s="12"/>
       <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
+      <c r="C5" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A6" s="12"/>

--- a/PM_Tracing/FamilyFinanceProjectDocument.xlsx
+++ b/PM_Tracing/FamilyFinanceProjectDocument.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>对象模型：</t>
   </si>
@@ -158,9 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未开始</t>
-  </si>
-  <si>
     <t>已结束</t>
   </si>
   <si>
@@ -172,7 +169,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>创建header page和footer page，将页面的结构进行拆分</t>
+    <t>创建header page和footer page，将页面的结构进行拆分
+备注：使用了Django模板的模板继承功能，定义基本模板的BLOCK标签，在子模板中EXTENDED</t>
+  </si>
+  <si>
+    <t>在菜单中增加一个图表的菜单，将记账凭证以柱状图的形式展现在页面上，图表工具使用CanvasJS，研究如何与后端进行数据交互</t>
+  </si>
+  <si>
+    <t>开发中</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1010,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1046,44 +1050,48 @@
         <v>41</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="16" customFormat="1" ht="25.5">
       <c r="A4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>46</v>
-      </c>
       <c r="D4" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="16" customFormat="1" ht="12.75">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="16" customFormat="1" ht="38.25">
       <c r="A5" s="12"/>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="6" spans="1:4" s="16" customFormat="1" ht="38.25">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
+      <c r="C6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="7" spans="1:4" s="16" customFormat="1" ht="12.75">
       <c r="A7" s="12"/>

--- a/PM_Tracing/FamilyFinanceProjectDocument.xlsx
+++ b/PM_Tracing/FamilyFinanceProjectDocument.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I300934\PycharmProjects\WossHouseFinanceManagement\PM_Tracing\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12570" activeTab="1"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>对象模型：</t>
   </si>
@@ -177,24 +172,30 @@
   </si>
   <si>
     <t>开发中</t>
+  </si>
+  <si>
+    <t>网站1.0版本功能定义：
+1. 网站数据写入及更改操作由后台完成；
+2. 前台主要完成报表，表格，数据的展示，不实现数据写入功能；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -202,7 +203,7 @@
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -248,7 +249,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -256,7 +257,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -265,7 +266,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -468,7 +469,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -484,7 +485,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -526,7 +527,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -561,7 +562,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -776,18 +777,18 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -797,7 +798,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -807,7 +808,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="25.5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
         <v>5</v>
@@ -817,7 +818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" s="5"/>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -827,7 +828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6" s="5"/>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -837,13 +838,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
@@ -853,7 +854,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9" s="5"/>
       <c r="C9" s="4" t="s">
         <v>13</v>
@@ -863,7 +864,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" s="5"/>
       <c r="C10" s="4" t="s">
         <v>15</v>
@@ -873,7 +874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B11" s="5"/>
       <c r="C11" s="4" t="s">
         <v>17</v>
@@ -883,13 +884,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="25.5">
+    <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
@@ -899,7 +900,7 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" s="5"/>
       <c r="C14" s="4" t="s">
         <v>21</v>
@@ -909,7 +910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B15" s="5"/>
       <c r="C15" s="4" t="s">
         <v>23</v>
@@ -919,7 +920,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16" s="5"/>
       <c r="C16" s="4" t="s">
         <v>25</v>
@@ -929,13 +930,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="2:5" ht="25.5">
+    <row r="18" spans="2:5" ht="25.5" x14ac:dyDescent="0.15">
       <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
@@ -945,7 +946,7 @@
       </c>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="2:5" ht="25.5">
+    <row r="19" spans="2:5" ht="25.5" x14ac:dyDescent="0.15">
       <c r="B19" s="5"/>
       <c r="C19" s="4" t="s">
         <v>29</v>
@@ -955,7 +956,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B20" s="5"/>
       <c r="C20" s="4" t="s">
         <v>31</v>
@@ -965,7 +966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B21" s="5"/>
       <c r="C21" s="4" t="s">
         <v>32</v>
@@ -975,7 +976,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B22" s="5"/>
       <c r="C22" s="4" t="s">
         <v>34</v>
@@ -985,7 +986,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="25.5">
+    <row r="23" spans="2:5" ht="25.5" x14ac:dyDescent="0.15">
       <c r="B23" s="5"/>
       <c r="C23" s="4" t="s">
         <v>36</v>
@@ -1010,18 +1011,18 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="50.5703125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="50.5703125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="50.625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="50.625" style="11" customWidth="1"/>
     <col min="4" max="4" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
         <v>37</v>
       </c>
@@ -1031,7 +1032,7 @@
       </c>
       <c r="D1" s="20"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="21" t="s">
         <v>39</v>
       </c>
@@ -1045,7 +1046,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="16" customFormat="1" ht="51">
+    <row r="3" spans="1:4" s="16" customFormat="1" ht="36" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>41</v>
       </c>
@@ -1059,7 +1060,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="16" customFormat="1" ht="25.5">
+    <row r="4" spans="1:4" s="16" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>44</v>
       </c>
@@ -1073,7 +1074,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="16" customFormat="1" ht="38.25">
+    <row r="5" spans="1:4" s="16" customFormat="1" ht="36" x14ac:dyDescent="0.15">
       <c r="A5" s="12"/>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
@@ -1083,725 +1084,729 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="16" customFormat="1" ht="38.25">
+    <row r="6" spans="1:4" s="16" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="16" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" s="16" customFormat="1" ht="12.75">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
       <c r="C7" s="14"/>
       <c r="D7" s="15"/>
     </row>
-    <row r="8" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="8" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
     </row>
-    <row r="9" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="9" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
     </row>
-    <row r="10" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="10" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
     </row>
-    <row r="11" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="11" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
     </row>
-    <row r="12" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="12" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
     </row>
-    <row r="13" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="13" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
     </row>
-    <row r="14" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="14" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
       <c r="D14" s="15"/>
     </row>
-    <row r="15" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="15" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
       <c r="D15" s="15"/>
     </row>
-    <row r="16" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="16" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
     </row>
-    <row r="17" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="17" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="15"/>
     </row>
-    <row r="18" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="18" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="15"/>
     </row>
-    <row r="19" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="19" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
       <c r="D19" s="15"/>
     </row>
-    <row r="20" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="20" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
       <c r="D20" s="15"/>
     </row>
-    <row r="21" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="21" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
       <c r="D21" s="15"/>
     </row>
-    <row r="22" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="22" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="14"/>
       <c r="D22" s="15"/>
     </row>
-    <row r="23" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="23" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
       <c r="D23" s="15"/>
     </row>
-    <row r="24" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="24" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="14"/>
       <c r="D24" s="15"/>
     </row>
-    <row r="25" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="25" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="14"/>
       <c r="D25" s="15"/>
     </row>
-    <row r="26" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="26" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
       <c r="D26" s="15"/>
     </row>
-    <row r="27" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="27" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
       <c r="D27" s="15"/>
     </row>
-    <row r="28" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="28" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15"/>
     </row>
-    <row r="29" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="29" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
       <c r="D29" s="15"/>
     </row>
-    <row r="30" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="30" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
       <c r="D30" s="15"/>
     </row>
-    <row r="31" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="31" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
       <c r="D31" s="15"/>
     </row>
-    <row r="32" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="32" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
       <c r="D32" s="15"/>
     </row>
-    <row r="33" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="33" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
       <c r="D33" s="15"/>
     </row>
-    <row r="34" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="34" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="14"/>
       <c r="D34" s="15"/>
     </row>
-    <row r="35" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="35" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
       <c r="D35" s="15"/>
     </row>
-    <row r="36" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="36" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
       <c r="D36" s="15"/>
     </row>
-    <row r="37" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="37" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="14"/>
       <c r="D37" s="15"/>
     </row>
-    <row r="38" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="38" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="14"/>
       <c r="D38" s="15"/>
     </row>
-    <row r="39" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="39" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="14"/>
       <c r="D39" s="15"/>
     </row>
-    <row r="40" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="40" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
       <c r="D40" s="15"/>
     </row>
-    <row r="41" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="41" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A41" s="12"/>
       <c r="B41" s="13"/>
       <c r="C41" s="14"/>
       <c r="D41" s="15"/>
     </row>
-    <row r="42" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="42" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A42" s="12"/>
       <c r="B42" s="13"/>
       <c r="C42" s="14"/>
       <c r="D42" s="15"/>
     </row>
-    <row r="43" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="43" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A43" s="12"/>
       <c r="B43" s="13"/>
       <c r="C43" s="14"/>
       <c r="D43" s="15"/>
     </row>
-    <row r="44" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="44" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A44" s="12"/>
       <c r="B44" s="13"/>
       <c r="C44" s="14"/>
       <c r="D44" s="15"/>
     </row>
-    <row r="45" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="45" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A45" s="12"/>
       <c r="B45" s="13"/>
       <c r="C45" s="14"/>
       <c r="D45" s="15"/>
     </row>
-    <row r="46" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="46" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A46" s="12"/>
       <c r="B46" s="13"/>
       <c r="C46" s="14"/>
       <c r="D46" s="15"/>
     </row>
-    <row r="47" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="47" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A47" s="12"/>
       <c r="B47" s="13"/>
       <c r="C47" s="14"/>
       <c r="D47" s="15"/>
     </row>
-    <row r="48" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="48" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A48" s="12"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14"/>
       <c r="D48" s="15"/>
     </row>
-    <row r="49" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="49" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A49" s="12"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
       <c r="D49" s="15"/>
     </row>
-    <row r="50" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="50" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A50" s="12"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
       <c r="D50" s="15"/>
     </row>
-    <row r="51" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="51" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A51" s="12"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
       <c r="D51" s="15"/>
     </row>
-    <row r="52" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="52" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A52" s="12"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
       <c r="D52" s="15"/>
     </row>
-    <row r="53" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="53" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A53" s="12"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
       <c r="D53" s="15"/>
     </row>
-    <row r="54" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="54" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A54" s="12"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
       <c r="D54" s="15"/>
     </row>
-    <row r="55" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="55" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A55" s="12"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
       <c r="D55" s="15"/>
     </row>
-    <row r="56" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="56" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A56" s="12"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
       <c r="D56" s="15"/>
     </row>
-    <row r="57" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="57" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A57" s="12"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
       <c r="D57" s="15"/>
     </row>
-    <row r="58" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="58" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A58" s="12"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
       <c r="D58" s="15"/>
     </row>
-    <row r="59" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="59" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A59" s="12"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
       <c r="D59" s="15"/>
     </row>
-    <row r="60" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="60" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A60" s="12"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
       <c r="D60" s="15"/>
     </row>
-    <row r="61" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="61" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A61" s="12"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
       <c r="D61" s="15"/>
     </row>
-    <row r="62" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="62" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A62" s="12"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
       <c r="D62" s="15"/>
     </row>
-    <row r="63" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="63" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A63" s="12"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
       <c r="D63" s="15"/>
     </row>
-    <row r="64" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="64" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A64" s="12"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
       <c r="D64" s="15"/>
     </row>
-    <row r="65" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="65" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A65" s="12"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14"/>
       <c r="D65" s="15"/>
     </row>
-    <row r="66" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="66" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A66" s="12"/>
       <c r="B66" s="13"/>
       <c r="C66" s="14"/>
       <c r="D66" s="15"/>
     </row>
-    <row r="67" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="67" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A67" s="12"/>
       <c r="B67" s="13"/>
       <c r="C67" s="14"/>
       <c r="D67" s="15"/>
     </row>
-    <row r="68" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="68" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A68" s="12"/>
       <c r="B68" s="13"/>
       <c r="C68" s="14"/>
       <c r="D68" s="15"/>
     </row>
-    <row r="69" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="69" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A69" s="12"/>
       <c r="B69" s="13"/>
       <c r="C69" s="14"/>
       <c r="D69" s="15"/>
     </row>
-    <row r="70" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="70" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A70" s="12"/>
       <c r="B70" s="13"/>
       <c r="C70" s="14"/>
       <c r="D70" s="15"/>
     </row>
-    <row r="71" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="71" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A71" s="12"/>
       <c r="B71" s="13"/>
       <c r="C71" s="14"/>
       <c r="D71" s="15"/>
     </row>
-    <row r="72" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="72" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A72" s="12"/>
       <c r="B72" s="13"/>
       <c r="C72" s="14"/>
       <c r="D72" s="15"/>
     </row>
-    <row r="73" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="73" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A73" s="12"/>
       <c r="B73" s="13"/>
       <c r="C73" s="14"/>
       <c r="D73" s="15"/>
     </row>
-    <row r="74" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="74" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A74" s="12"/>
       <c r="B74" s="13"/>
       <c r="C74" s="14"/>
       <c r="D74" s="15"/>
     </row>
-    <row r="75" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="75" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A75" s="12"/>
       <c r="B75" s="13"/>
       <c r="C75" s="14"/>
       <c r="D75" s="15"/>
     </row>
-    <row r="76" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="76" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A76" s="12"/>
       <c r="B76" s="13"/>
       <c r="C76" s="14"/>
       <c r="D76" s="15"/>
     </row>
-    <row r="77" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="77" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A77" s="12"/>
       <c r="B77" s="13"/>
       <c r="C77" s="14"/>
       <c r="D77" s="15"/>
     </row>
-    <row r="78" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="78" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A78" s="12"/>
       <c r="B78" s="13"/>
       <c r="C78" s="14"/>
       <c r="D78" s="15"/>
     </row>
-    <row r="79" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="79" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A79" s="12"/>
       <c r="B79" s="13"/>
       <c r="C79" s="14"/>
       <c r="D79" s="15"/>
     </row>
-    <row r="80" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="80" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A80" s="12"/>
       <c r="B80" s="13"/>
       <c r="C80" s="14"/>
       <c r="D80" s="15"/>
     </row>
-    <row r="81" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="81" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A81" s="12"/>
       <c r="B81" s="13"/>
       <c r="C81" s="14"/>
       <c r="D81" s="15"/>
     </row>
-    <row r="82" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="82" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A82" s="12"/>
       <c r="B82" s="13"/>
       <c r="C82" s="14"/>
       <c r="D82" s="15"/>
     </row>
-    <row r="83" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="83" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A83" s="12"/>
       <c r="B83" s="13"/>
       <c r="C83" s="14"/>
       <c r="D83" s="15"/>
     </row>
-    <row r="84" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="84" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A84" s="12"/>
       <c r="B84" s="13"/>
       <c r="C84" s="14"/>
       <c r="D84" s="15"/>
     </row>
-    <row r="85" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="85" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A85" s="12"/>
       <c r="B85" s="13"/>
       <c r="C85" s="14"/>
       <c r="D85" s="15"/>
     </row>
-    <row r="86" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="86" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A86" s="12"/>
       <c r="B86" s="13"/>
       <c r="C86" s="14"/>
       <c r="D86" s="15"/>
     </row>
-    <row r="87" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="87" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A87" s="12"/>
       <c r="B87" s="13"/>
       <c r="C87" s="14"/>
       <c r="D87" s="15"/>
     </row>
-    <row r="88" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="88" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A88" s="12"/>
       <c r="B88" s="13"/>
       <c r="C88" s="14"/>
       <c r="D88" s="15"/>
     </row>
-    <row r="89" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="89" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A89" s="12"/>
       <c r="B89" s="13"/>
       <c r="C89" s="14"/>
       <c r="D89" s="15"/>
     </row>
-    <row r="90" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="90" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A90" s="12"/>
       <c r="B90" s="13"/>
       <c r="C90" s="14"/>
       <c r="D90" s="15"/>
     </row>
-    <row r="91" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="91" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A91" s="12"/>
       <c r="B91" s="13"/>
       <c r="C91" s="14"/>
       <c r="D91" s="15"/>
     </row>
-    <row r="92" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="92" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A92" s="12"/>
       <c r="B92" s="13"/>
       <c r="C92" s="14"/>
       <c r="D92" s="15"/>
     </row>
-    <row r="93" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="93" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A93" s="12"/>
       <c r="B93" s="13"/>
       <c r="C93" s="14"/>
       <c r="D93" s="15"/>
     </row>
-    <row r="94" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="94" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A94" s="12"/>
       <c r="B94" s="13"/>
       <c r="C94" s="14"/>
       <c r="D94" s="15"/>
     </row>
-    <row r="95" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="95" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A95" s="12"/>
       <c r="B95" s="13"/>
       <c r="C95" s="14"/>
       <c r="D95" s="15"/>
     </row>
-    <row r="96" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="96" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A96" s="12"/>
       <c r="B96" s="13"/>
       <c r="C96" s="14"/>
       <c r="D96" s="15"/>
     </row>
-    <row r="97" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="97" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A97" s="12"/>
       <c r="B97" s="13"/>
       <c r="C97" s="14"/>
       <c r="D97" s="15"/>
     </row>
-    <row r="98" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="98" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A98" s="12"/>
       <c r="B98" s="13"/>
       <c r="C98" s="14"/>
       <c r="D98" s="15"/>
     </row>
-    <row r="99" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="99" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A99" s="12"/>
       <c r="B99" s="13"/>
       <c r="C99" s="14"/>
       <c r="D99" s="15"/>
     </row>
-    <row r="100" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="100" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A100" s="12"/>
       <c r="B100" s="13"/>
       <c r="C100" s="14"/>
       <c r="D100" s="15"/>
     </row>
-    <row r="101" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="101" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A101" s="12"/>
       <c r="B101" s="13"/>
       <c r="C101" s="14"/>
       <c r="D101" s="15"/>
     </row>
-    <row r="102" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="102" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A102" s="12"/>
       <c r="B102" s="13"/>
       <c r="C102" s="14"/>
       <c r="D102" s="15"/>
     </row>
-    <row r="103" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="103" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A103" s="12"/>
       <c r="B103" s="13"/>
       <c r="C103" s="14"/>
       <c r="D103" s="15"/>
     </row>
-    <row r="104" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="104" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A104" s="12"/>
       <c r="B104" s="13"/>
       <c r="C104" s="14"/>
       <c r="D104" s="15"/>
     </row>
-    <row r="105" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="105" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A105" s="12"/>
       <c r="B105" s="13"/>
       <c r="C105" s="14"/>
       <c r="D105" s="15"/>
     </row>
-    <row r="106" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="106" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A106" s="12"/>
       <c r="B106" s="13"/>
       <c r="C106" s="14"/>
       <c r="D106" s="15"/>
     </row>
-    <row r="107" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="107" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A107" s="12"/>
       <c r="B107" s="13"/>
       <c r="C107" s="14"/>
       <c r="D107" s="15"/>
     </row>
-    <row r="108" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="108" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A108" s="12"/>
       <c r="B108" s="13"/>
       <c r="C108" s="14"/>
       <c r="D108" s="15"/>
     </row>
-    <row r="109" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="109" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A109" s="12"/>
       <c r="B109" s="13"/>
       <c r="C109" s="14"/>
       <c r="D109" s="15"/>
     </row>
-    <row r="110" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="110" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A110" s="12"/>
       <c r="B110" s="13"/>
       <c r="C110" s="14"/>
       <c r="D110" s="15"/>
     </row>
-    <row r="111" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="111" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A111" s="12"/>
       <c r="B111" s="13"/>
       <c r="C111" s="14"/>
       <c r="D111" s="15"/>
     </row>
-    <row r="112" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="112" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A112" s="12"/>
       <c r="B112" s="13"/>
       <c r="C112" s="14"/>
       <c r="D112" s="15"/>
     </row>
-    <row r="113" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="113" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A113" s="12"/>
       <c r="B113" s="13"/>
       <c r="C113" s="14"/>
       <c r="D113" s="15"/>
     </row>
-    <row r="114" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="114" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A114" s="12"/>
       <c r="B114" s="13"/>
       <c r="C114" s="14"/>
       <c r="D114" s="15"/>
     </row>
-    <row r="115" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="115" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A115" s="12"/>
       <c r="B115" s="13"/>
       <c r="C115" s="14"/>
       <c r="D115" s="15"/>
     </row>
-    <row r="116" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="116" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A116" s="12"/>
       <c r="B116" s="13"/>
       <c r="C116" s="14"/>
       <c r="D116" s="15"/>
     </row>
-    <row r="117" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="117" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A117" s="12"/>
       <c r="B117" s="13"/>
       <c r="C117" s="14"/>
       <c r="D117" s="15"/>
     </row>
-    <row r="118" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="118" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A118" s="12"/>
       <c r="B118" s="13"/>
       <c r="C118" s="14"/>
       <c r="D118" s="15"/>
     </row>
-    <row r="119" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="119" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A119" s="12"/>
       <c r="B119" s="13"/>
       <c r="C119" s="14"/>
       <c r="D119" s="15"/>
     </row>
-    <row r="120" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="120" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A120" s="12"/>
       <c r="B120" s="13"/>
       <c r="C120" s="14"/>
       <c r="D120" s="15"/>
     </row>
-    <row r="121" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="121" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A121" s="12"/>
       <c r="B121" s="13"/>
       <c r="C121" s="14"/>
       <c r="D121" s="15"/>
     </row>
-    <row r="122" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="122" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A122" s="12"/>
       <c r="B122" s="13"/>
       <c r="C122" s="14"/>
       <c r="D122" s="15"/>
     </row>
-    <row r="123" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="123" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A123" s="12"/>
       <c r="B123" s="13"/>
       <c r="C123" s="14"/>
       <c r="D123" s="15"/>
     </row>
-    <row r="124" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="124" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A124" s="12"/>
       <c r="B124" s="13"/>
       <c r="C124" s="14"/>
       <c r="D124" s="15"/>
     </row>
-    <row r="125" spans="1:4" s="16" customFormat="1" ht="12.75">
+    <row r="125" spans="1:4" s="16" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A125" s="12"/>
       <c r="B125" s="13"/>
       <c r="C125" s="14"/>
@@ -1825,7 +1830,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
